--- a/Code/Results/Cases/Case_1_67/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_67/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.071111137867007</v>
+        <v>1.051931324470075</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.03253393299074503</v>
+        <v>0.0334777856361157</v>
       </c>
       <c r="E2">
-        <v>0.1096350505426233</v>
+        <v>0.252259609794887</v>
       </c>
       <c r="F2">
-        <v>0.8894159357974303</v>
+        <v>1.035586324422141</v>
       </c>
       <c r="G2">
-        <v>0.8170872830758498</v>
+        <v>0.8951436972055831</v>
       </c>
       <c r="H2">
-        <v>0.5340468304861901</v>
+        <v>0.918194064002293</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.640536654832687</v>
+        <v>0.4958702926694514</v>
       </c>
       <c r="L2">
-        <v>0.3289346802971949</v>
+        <v>0.1635153336092543</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.034161515940031</v>
+        <v>2.053928379703617</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9534452115299814</v>
+        <v>1.025680380202431</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0314540645705641</v>
+        <v>0.03298472453969836</v>
       </c>
       <c r="E3">
-        <v>0.1113939267195905</v>
+        <v>0.2536670297256984</v>
       </c>
       <c r="F3">
-        <v>0.8189152416355512</v>
+        <v>1.023944163161431</v>
       </c>
       <c r="G3">
-        <v>0.7526301283917149</v>
+        <v>0.8842639870132984</v>
       </c>
       <c r="H3">
-        <v>0.5110060520692912</v>
+        <v>0.9179156127566444</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.425877659559887</v>
+        <v>0.4330694660474421</v>
       </c>
       <c r="L3">
-        <v>0.2856130824927163</v>
+        <v>0.1521611400681735</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.08288754170092</v>
+        <v>2.07398026373059</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8822332513492768</v>
+        <v>1.010096680189065</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.03078642062108017</v>
+        <v>0.03267793606853786</v>
       </c>
       <c r="E4">
-        <v>0.1125681649842338</v>
+        <v>0.2545929883362419</v>
       </c>
       <c r="F4">
-        <v>0.777235584802952</v>
+        <v>1.017430457176999</v>
       </c>
       <c r="G4">
-        <v>0.7146720495112362</v>
+        <v>0.8781722781685204</v>
       </c>
       <c r="H4">
-        <v>0.4977980231594472</v>
+        <v>0.9181918428848803</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.294655089318127</v>
+        <v>0.3944948579348875</v>
       </c>
       <c r="L4">
-        <v>0.2592778314869832</v>
+        <v>0.1452711664136359</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.114234205221315</v>
+        <v>2.086956082072284</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8534528603864828</v>
+        <v>1.003880971223083</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.03051317284939259</v>
+        <v>0.0325519082637058</v>
       </c>
       <c r="E5">
-        <v>0.1130700432341643</v>
+        <v>0.2549858918794676</v>
       </c>
       <c r="F5">
-        <v>0.7606265468140521</v>
+        <v>1.014935476847882</v>
       </c>
       <c r="G5">
-        <v>0.6995814086269547</v>
+        <v>0.8758375533005278</v>
       </c>
       <c r="H5">
-        <v>0.4926383216989052</v>
+        <v>0.91841684397356</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.24129317708028</v>
+        <v>0.3787718904165729</v>
       </c>
       <c r="L5">
-        <v>0.2486043006519907</v>
+        <v>0.1424839735514354</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.127357316287863</v>
+        <v>2.092410688369132</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8486877370334014</v>
+        <v>1.002857008652427</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0304677286655668</v>
+        <v>0.03253092075684449</v>
       </c>
       <c r="E6">
-        <v>0.1131547813905458</v>
+        <v>0.2550520743153202</v>
       </c>
       <c r="F6">
-        <v>0.7578905188187335</v>
+        <v>1.014530810039595</v>
       </c>
       <c r="G6">
-        <v>0.6970975944957019</v>
+        <v>0.8754587862923557</v>
       </c>
       <c r="H6">
-        <v>0.4917946275740093</v>
+        <v>0.9184609955703706</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.232438325616613</v>
+        <v>0.3761608976111575</v>
       </c>
       <c r="L6">
-        <v>0.2468352597837651</v>
+        <v>0.1420224027625068</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.129557197000899</v>
+        <v>2.093326496829476</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8818441682676053</v>
+        <v>1.010012306766839</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03078274029630634</v>
+        <v>0.03267624048763551</v>
       </c>
       <c r="E7">
-        <v>0.1125748393161965</v>
+        <v>0.254598224098415</v>
       </c>
       <c r="F7">
-        <v>0.7770101046648108</v>
+        <v>1.017396163797756</v>
       </c>
       <c r="G7">
-        <v>0.7144670407598994</v>
+        <v>0.878140193611884</v>
       </c>
       <c r="H7">
-        <v>0.4977275532312007</v>
+        <v>0.9181944221085416</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.293935019433036</v>
+        <v>0.3942828264299578</v>
       </c>
       <c r="L7">
-        <v>0.2591336589446342</v>
+        <v>0.1452334942118227</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.114409787627409</v>
+        <v>2.087028969325956</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.03031180428431</v>
+        <v>1.042769279839177</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.03216253447032713</v>
+        <v>0.03330862312976279</v>
       </c>
       <c r="E8">
-        <v>0.1102217320856917</v>
+        <v>0.2527320793589354</v>
       </c>
       <c r="F8">
-        <v>0.8647557912332786</v>
+        <v>1.031440278290134</v>
       </c>
       <c r="G8">
-        <v>0.7945081459180869</v>
+        <v>0.8912700592390905</v>
       </c>
       <c r="H8">
-        <v>0.5258990966214725</v>
+        <v>0.9180052245568646</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.56638137484299</v>
+        <v>0.4742196971004091</v>
       </c>
       <c r="L8">
-        <v>0.3139374327432023</v>
+        <v>0.1595834916662398</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.050659433741515</v>
+        <v>2.060704432618181</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.330708189469107</v>
+        <v>1.111234607197048</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03483321448350907</v>
+        <v>0.03451628862999101</v>
       </c>
       <c r="E9">
-        <v>0.1063716698035471</v>
+        <v>0.2495616301935977</v>
       </c>
       <c r="F9">
-        <v>1.050969414039969</v>
+        <v>1.064027044693617</v>
       </c>
       <c r="G9">
-        <v>0.965742301802905</v>
+        <v>0.9217023190303877</v>
       </c>
       <c r="H9">
-        <v>0.5892472090905585</v>
+        <v>0.9211845049246676</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.106872453644598</v>
+        <v>0.6308593063733099</v>
       </c>
       <c r="L9">
-        <v>0.4239042081874373</v>
+        <v>0.1883715054239161</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.9374663885971941</v>
+        <v>2.014352682600379</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.5586101245039</v>
+        <v>1.164104922945256</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03677669509439241</v>
+        <v>0.0353834327200957</v>
       </c>
       <c r="E10">
-        <v>0.1040331580233413</v>
+        <v>0.247528688935164</v>
       </c>
       <c r="F10">
-        <v>1.198484640585249</v>
+        <v>1.091064099534805</v>
       </c>
       <c r="G10">
-        <v>1.102396334596079</v>
+        <v>0.9469418002459236</v>
       </c>
       <c r="H10">
-        <v>0.6417098340288021</v>
+        <v>0.9256891175686803</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.510246354288597</v>
+        <v>0.745882912672073</v>
       </c>
       <c r="L10">
-        <v>0.5068211913674929</v>
+        <v>0.2099202325470344</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.8622291578014369</v>
+        <v>1.983514197157731</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.664228809815455</v>
+        <v>1.188713273261442</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.03765758054277768</v>
+        <v>0.03577347984428414</v>
       </c>
       <c r="E11">
-        <v>0.1030815572201114</v>
+        <v>0.2466678389313888</v>
       </c>
       <c r="F11">
-        <v>1.268423000515526</v>
+        <v>1.104040535292569</v>
       </c>
       <c r="G11">
-        <v>1.167441506948563</v>
+        <v>0.9590550853949082</v>
       </c>
       <c r="H11">
-        <v>0.6671007445251007</v>
+        <v>0.9282104079331361</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.695720408221888</v>
+        <v>0.7982003626091512</v>
       </c>
       <c r="L11">
-        <v>0.5451497360768087</v>
+        <v>0.2198106222319467</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.8298973243848593</v>
+        <v>1.970184000869352</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.704537259012199</v>
+        <v>1.198111692939079</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.03799076464783013</v>
+        <v>0.03592053746516655</v>
       </c>
       <c r="E12">
-        <v>0.1027378780634525</v>
+        <v>0.2463510242929665</v>
       </c>
       <c r="F12">
-        <v>1.295360199943758</v>
+        <v>1.109052018296353</v>
       </c>
       <c r="G12">
-        <v>1.192534233394156</v>
+        <v>0.9637332908164922</v>
       </c>
       <c r="H12">
-        <v>0.6769567553669731</v>
+        <v>0.9292331056931573</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.766293771097367</v>
+        <v>0.8180105537371105</v>
       </c>
       <c r="L12">
-        <v>0.5597645363477852</v>
+        <v>0.2235684925635724</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.8179426086735759</v>
+        <v>1.965236731115439</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.695841636303896</v>
+        <v>1.196084033266914</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.03791902342421949</v>
+        <v>0.03588889479348012</v>
       </c>
       <c r="E13">
-        <v>0.1028111450315627</v>
+        <v>0.24641884852117</v>
       </c>
       <c r="F13">
-        <v>1.289537872024624</v>
+        <v>1.107968362047259</v>
       </c>
       <c r="G13">
-        <v>1.187108741172665</v>
+        <v>0.9627216956750431</v>
       </c>
       <c r="H13">
-        <v>0.6748230018577885</v>
+        <v>0.9290098269868565</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.751078572856727</v>
+        <v>0.8137441357704347</v>
       </c>
       <c r="L13">
-        <v>0.556612283736925</v>
+        <v>0.2227586082276076</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.8205041584746269</v>
+        <v>1.966297737998822</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.667538538144697</v>
+        <v>1.189484890331954</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.03768499910490064</v>
+        <v>0.03578559133602255</v>
       </c>
       <c r="E14">
-        <v>0.1030529451765361</v>
+        <v>0.2466415907490465</v>
       </c>
       <c r="F14">
-        <v>1.270629784285305</v>
+        <v>1.10445087595933</v>
       </c>
       <c r="G14">
-        <v>1.169496365095654</v>
+        <v>0.9594381351687389</v>
       </c>
       <c r="H14">
-        <v>0.6679066430332625</v>
+        <v>0.9282931839900073</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.701519412972573</v>
+        <v>0.7998301861725849</v>
       </c>
       <c r="L14">
-        <v>0.5463500095784752</v>
+        <v>0.2201195322245866</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.8289079194841875</v>
+        <v>1.969774969186155</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.650243861154991</v>
+        <v>1.185453102111609</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.03754160434118248</v>
+        <v>0.03572223075307335</v>
       </c>
       <c r="E15">
-        <v>0.1032032425414293</v>
+        <v>0.2467792203458945</v>
       </c>
       <c r="F15">
-        <v>1.25910845983482</v>
+        <v>1.10230902947599</v>
       </c>
       <c r="G15">
-        <v>1.15876985590009</v>
+        <v>0.9574387419243067</v>
       </c>
       <c r="H15">
-        <v>0.6637022377410631</v>
+        <v>0.9278630687232123</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.671208748502693</v>
+        <v>0.7913073151792673</v>
       </c>
       <c r="L15">
-        <v>0.5400775780963869</v>
+        <v>0.218504661358395</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.8340935636221403</v>
+        <v>1.971917977778958</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.551749615496902</v>
+        <v>1.162507892850925</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.03671906851339202</v>
+        <v>0.03535785248633161</v>
       </c>
       <c r="E16">
-        <v>0.1040976500710729</v>
+        <v>0.2475862321355482</v>
       </c>
       <c r="F16">
-        <v>1.193974827151891</v>
+        <v>1.090229703250813</v>
       </c>
       <c r="G16">
-        <v>1.098207395418939</v>
+        <v>0.9461629082926066</v>
       </c>
       <c r="H16">
-        <v>0.6400829833119985</v>
+        <v>0.9255338497789865</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.498169485988342</v>
+        <v>0.7424636761648458</v>
       </c>
       <c r="L16">
-        <v>0.5043296766956189</v>
+        <v>0.2092756361515029</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.8643815927007381</v>
+        <v>1.984399423674432</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.491847575036985</v>
+        <v>1.14857423830594</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.0362136948172278</v>
+        <v>0.03513317942672955</v>
       </c>
       <c r="E17">
-        <v>0.1046754461143253</v>
+        <v>0.248097668016193</v>
       </c>
       <c r="F17">
-        <v>1.154774332122258</v>
+        <v>1.082993014105199</v>
       </c>
       <c r="G17">
-        <v>1.061824462892559</v>
+        <v>0.9394075802283766</v>
       </c>
       <c r="H17">
-        <v>0.6259988646177419</v>
+        <v>0.9242259054644677</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.392558877003978</v>
+        <v>0.7124976334238511</v>
       </c>
       <c r="L17">
-        <v>0.4825644430293039</v>
+        <v>0.2036363883576939</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.8834585781431201</v>
+        <v>1.992235371992411</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.457574430160975</v>
+        <v>1.140612454433438</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.03592270954847621</v>
+        <v>0.03500353782250798</v>
       </c>
       <c r="E18">
-        <v>0.1050183053063343</v>
+        <v>0.2483978526952146</v>
       </c>
       <c r="F18">
-        <v>1.132490936925365</v>
+        <v>1.078894384941222</v>
       </c>
       <c r="G18">
-        <v>1.041166030433516</v>
+        <v>0.9355815349473318</v>
       </c>
       <c r="H18">
-        <v>0.6180402254265687</v>
+        <v>0.9235180455563494</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.331997046134319</v>
+        <v>0.6952612787914063</v>
       </c>
       <c r="L18">
-        <v>0.4701021549699789</v>
+        <v>0.2004011046634417</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.8946083704289762</v>
+        <v>1.996808127788757</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.44600023552178</v>
+        <v>1.137925757245085</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.03582413205312207</v>
+        <v>0.03495957229968383</v>
       </c>
       <c r="E19">
-        <v>0.1051361837429843</v>
+        <v>0.2485005248137213</v>
       </c>
       <c r="F19">
-        <v>1.124990122519833</v>
+        <v>1.077517597457614</v>
       </c>
       <c r="G19">
-        <v>1.034216105406784</v>
+        <v>0.9342963008169534</v>
       </c>
       <c r="H19">
-        <v>0.61536935524569</v>
+        <v>0.9232860066321109</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2.311521643214235</v>
+        <v>0.6894252356821085</v>
       </c>
       <c r="L19">
-        <v>0.4658919632882288</v>
+        <v>0.1993071130812041</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.8984134607525576</v>
+        <v>1.998367667972325</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.498205292005139</v>
+        <v>1.150052070293924</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.03626752406083256</v>
+        <v>0.03515713933605014</v>
       </c>
       <c r="E20">
-        <v>0.1046128455635529</v>
+        <v>0.248042601896227</v>
       </c>
       <c r="F20">
-        <v>1.158919681996778</v>
+        <v>1.083756775359234</v>
       </c>
       <c r="G20">
-        <v>1.065669414418608</v>
+        <v>0.9401205421705612</v>
       </c>
       <c r="H20">
-        <v>0.6274832776615824</v>
+        <v>0.9243605391474858</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.403782032244663</v>
+        <v>0.7156876418382012</v>
       </c>
       <c r="L20">
-        <v>0.4848754511410078</v>
+        <v>0.204235840967371</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.8814093456947276</v>
+        <v>1.991394418416292</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.675843072388062</v>
+        <v>1.191421056617259</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.03775374759502625</v>
+        <v>0.03581595163547746</v>
       </c>
       <c r="E21">
-        <v>0.102981465657292</v>
+        <v>0.2465759172662878</v>
       </c>
       <c r="F21">
-        <v>1.276170868237386</v>
+        <v>1.10548139664273</v>
       </c>
       <c r="G21">
-        <v>1.174656623378922</v>
+        <v>0.9604001196233298</v>
       </c>
       <c r="H21">
-        <v>0.6699314217263748</v>
+        <v>0.9285018351415033</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.716066501475382</v>
+        <v>0.8039170873547334</v>
       </c>
       <c r="L21">
-        <v>0.5493614484482521</v>
+        <v>0.2208943512190018</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.8264315605455081</v>
+        <v>1.968750890927488</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.793781141263509</v>
+        <v>1.218922874744095</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.03872286298714656</v>
+        <v>0.03624276130716808</v>
       </c>
       <c r="E22">
-        <v>0.1020127198582799</v>
+        <v>0.2456707958864595</v>
       </c>
       <c r="F22">
-        <v>1.355466213318351</v>
+        <v>1.120248613127643</v>
       </c>
       <c r="G22">
-        <v>1.24860124664832</v>
+        <v>0.9741855403790396</v>
       </c>
       <c r="H22">
-        <v>0.6990900806790989</v>
+        <v>0.9316044405861703</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.922163392225656</v>
+        <v>0.8615724939363929</v>
       </c>
       <c r="L22">
-        <v>0.5921000800309315</v>
+        <v>0.2318550483911821</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.7921914500520302</v>
+        <v>1.954538406886762</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.730655168206482</v>
+        <v>1.204202233072351</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.03820580265807294</v>
+        <v>0.03601531214644638</v>
       </c>
       <c r="E23">
-        <v>0.1025206514595958</v>
+        <v>0.2461489943731099</v>
       </c>
       <c r="F23">
-        <v>1.312884803921904</v>
+        <v>1.112314943977438</v>
       </c>
       <c r="G23">
-        <v>1.208870433636577</v>
+        <v>0.9667792573385725</v>
       </c>
       <c r="H23">
-        <v>0.6833902905416664</v>
+        <v>0.9299122682893994</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.811963359965631</v>
+        <v>0.8308014937032056</v>
       </c>
       <c r="L23">
-        <v>0.5692307856825636</v>
+        <v>0.2259984107720499</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.8103055554725742</v>
+        <v>1.962070170680661</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.495330455660905</v>
+        <v>1.149383790230189</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.03624318923320047</v>
+        <v>0.03514630853612033</v>
       </c>
       <c r="E24">
-        <v>0.1046411140575589</v>
+        <v>0.2480674781211913</v>
       </c>
       <c r="F24">
-        <v>1.157044783154888</v>
+        <v>1.083411286281461</v>
       </c>
       <c r="G24">
-        <v>1.063930309878586</v>
+        <v>0.9397980324196311</v>
       </c>
       <c r="H24">
-        <v>0.6268117447177843</v>
+        <v>0.9242995339045308</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.398707564636709</v>
+        <v>0.7142454654296273</v>
       </c>
       <c r="L24">
-        <v>0.4838304870050365</v>
+        <v>0.2039648072772025</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.882335237452935</v>
+        <v>1.991774402445142</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.248298180284507</v>
+        <v>1.092261141298252</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.0341142340406293</v>
+        <v>0.03419309261238723</v>
       </c>
       <c r="E25">
-        <v>0.107328995521736</v>
+        <v>0.2503671459129047</v>
       </c>
       <c r="F25">
-        <v>0.9988741952930837</v>
+        <v>1.054669238504843</v>
       </c>
       <c r="G25">
-        <v>0.9176792529567166</v>
+        <v>0.9129654809214003</v>
       </c>
       <c r="H25">
-        <v>0.5711457001209084</v>
+        <v>0.9199438874669852</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.959744743202691</v>
+        <v>0.5884954219815199</v>
       </c>
       <c r="L25">
-        <v>0.3938285447899972</v>
+        <v>0.1805139010115937</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.9667517233624174</v>
+        <v>2.026327504213608</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_67/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_67/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.051931324470075</v>
+        <v>1.071111137867007</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0334777856361157</v>
+        <v>0.03253393299074503</v>
       </c>
       <c r="E2">
-        <v>0.252259609794887</v>
+        <v>0.1096350505426251</v>
       </c>
       <c r="F2">
-        <v>1.035586324422141</v>
+        <v>0.8894159357974303</v>
       </c>
       <c r="G2">
-        <v>0.8951436972055831</v>
+        <v>0.8170872830758071</v>
       </c>
       <c r="H2">
-        <v>0.918194064002293</v>
+        <v>0.5340468304863037</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.4958702926694514</v>
+        <v>1.640536654832687</v>
       </c>
       <c r="L2">
-        <v>0.1635153336092543</v>
+        <v>0.3289346802972375</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.053928379703617</v>
+        <v>1.034161515940021</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.025680380202431</v>
+        <v>0.9534452115297825</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.03298472453969836</v>
+        <v>0.03145406457050015</v>
       </c>
       <c r="E3">
-        <v>0.2536670297256984</v>
+        <v>0.1113939267195931</v>
       </c>
       <c r="F3">
-        <v>1.023944163161431</v>
+        <v>0.8189152416355512</v>
       </c>
       <c r="G3">
-        <v>0.8842639870132984</v>
+        <v>0.7526301283916581</v>
       </c>
       <c r="H3">
-        <v>0.9179156127566444</v>
+        <v>0.5110060520691633</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4330694660474421</v>
+        <v>1.425877659559944</v>
       </c>
       <c r="L3">
-        <v>0.1521611400681735</v>
+        <v>0.2856130824927021</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.07398026373059</v>
+        <v>1.082887541700906</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.010096680189065</v>
+        <v>0.8822332513491631</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.03267793606853786</v>
+        <v>0.03078642062108372</v>
       </c>
       <c r="E4">
-        <v>0.2545929883362419</v>
+        <v>0.1125681649842356</v>
       </c>
       <c r="F4">
-        <v>1.017430457176999</v>
+        <v>0.7772355848029378</v>
       </c>
       <c r="G4">
-        <v>0.8781722781685204</v>
+        <v>0.7146720495112362</v>
       </c>
       <c r="H4">
-        <v>0.9181918428848803</v>
+        <v>0.4977980231595609</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3944948579348875</v>
+        <v>1.294655089317985</v>
       </c>
       <c r="L4">
-        <v>0.1452711664136359</v>
+        <v>0.2592778314869548</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.086956082072284</v>
+        <v>1.114234205221315</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.003880971223083</v>
+        <v>0.8534528603864544</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0325519082637058</v>
+        <v>0.03051317284928245</v>
       </c>
       <c r="E5">
-        <v>0.2549858918794676</v>
+        <v>0.1130700432341651</v>
       </c>
       <c r="F5">
-        <v>1.014935476847882</v>
+        <v>0.7606265468140663</v>
       </c>
       <c r="G5">
-        <v>0.8758375533005278</v>
+        <v>0.6995814086269405</v>
       </c>
       <c r="H5">
-        <v>0.91841684397356</v>
+        <v>0.4926383216989052</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3787718904165729</v>
+        <v>1.241293177080308</v>
       </c>
       <c r="L5">
-        <v>0.1424839735514354</v>
+        <v>0.2486043006520333</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.092410688369132</v>
+        <v>1.127357316287856</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.002857008652427</v>
+        <v>0.8486877370334582</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.03253092075684449</v>
+        <v>0.03046772866568759</v>
       </c>
       <c r="E6">
-        <v>0.2550520743153202</v>
+        <v>0.1131547813905591</v>
       </c>
       <c r="F6">
-        <v>1.014530810039595</v>
+        <v>0.7578905188187122</v>
       </c>
       <c r="G6">
-        <v>0.8754587862923557</v>
+        <v>0.6970975944957445</v>
       </c>
       <c r="H6">
-        <v>0.9184609955703706</v>
+        <v>0.4917946275740093</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3761608976111575</v>
+        <v>1.232438325616698</v>
       </c>
       <c r="L6">
-        <v>0.1420224027625068</v>
+        <v>0.2468352597837509</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.093326496829476</v>
+        <v>1.129557197000889</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.010012306766839</v>
+        <v>0.8818441682676337</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03267624048763551</v>
+        <v>0.03078274029642003</v>
       </c>
       <c r="E7">
-        <v>0.254598224098415</v>
+        <v>0.112574839316208</v>
       </c>
       <c r="F7">
-        <v>1.017396163797756</v>
+        <v>0.777010104664825</v>
       </c>
       <c r="G7">
-        <v>0.878140193611884</v>
+        <v>0.7144670407598994</v>
       </c>
       <c r="H7">
-        <v>0.9181944221085416</v>
+        <v>0.497727553231087</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3942828264299578</v>
+        <v>1.293935019433064</v>
       </c>
       <c r="L7">
-        <v>0.1452334942118227</v>
+        <v>0.2591336589446342</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.087028969325956</v>
+        <v>1.114409787627419</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.042769279839177</v>
+        <v>1.030311804284452</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.03330862312976279</v>
+        <v>0.03216253447026673</v>
       </c>
       <c r="E8">
-        <v>0.2527320793589354</v>
+        <v>0.1102217320857104</v>
       </c>
       <c r="F8">
-        <v>1.031440278290134</v>
+        <v>0.8647557912332928</v>
       </c>
       <c r="G8">
-        <v>0.8912700592390905</v>
+        <v>0.7945081459180585</v>
       </c>
       <c r="H8">
-        <v>0.9180052245568646</v>
+        <v>0.5258990966215009</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.4742196971004091</v>
+        <v>1.566381374842962</v>
       </c>
       <c r="L8">
-        <v>0.1595834916662398</v>
+        <v>0.3139374327431597</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.060704432618181</v>
+        <v>1.050659433741469</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.111234607197048</v>
+        <v>1.330708189469021</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03451628862999101</v>
+        <v>0.03483321448357657</v>
       </c>
       <c r="E9">
-        <v>0.2495616301935977</v>
+        <v>0.1063716698035435</v>
       </c>
       <c r="F9">
-        <v>1.064027044693617</v>
+        <v>1.050969414039983</v>
       </c>
       <c r="G9">
-        <v>0.9217023190303877</v>
+        <v>0.9657423018028197</v>
       </c>
       <c r="H9">
-        <v>0.9211845049246676</v>
+        <v>0.5892472090905443</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.6308593063733099</v>
+        <v>2.106872453644655</v>
       </c>
       <c r="L9">
-        <v>0.1883715054239161</v>
+        <v>0.4239042081875652</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2.014352682600379</v>
+        <v>0.937466388597251</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.164104922945256</v>
+        <v>1.558610124503986</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0353834327200957</v>
+        <v>0.03677669509427162</v>
       </c>
       <c r="E10">
-        <v>0.247528688935164</v>
+        <v>0.1040331580233067</v>
       </c>
       <c r="F10">
-        <v>1.091064099534805</v>
+        <v>1.198484640585235</v>
       </c>
       <c r="G10">
-        <v>0.9469418002459236</v>
+        <v>1.102396334596051</v>
       </c>
       <c r="H10">
-        <v>0.9256891175686803</v>
+        <v>0.6417098340288021</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.745882912672073</v>
+        <v>2.510246354288682</v>
       </c>
       <c r="L10">
-        <v>0.2099202325470344</v>
+        <v>0.5068211913674503</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.983514197157731</v>
+        <v>0.8622291578014938</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.188713273261442</v>
+        <v>1.664228809815626</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.03577347984428414</v>
+        <v>0.03765758054285939</v>
       </c>
       <c r="E11">
-        <v>0.2466678389313888</v>
+        <v>0.1030815572200883</v>
       </c>
       <c r="F11">
-        <v>1.104040535292569</v>
+        <v>1.268423000515526</v>
       </c>
       <c r="G11">
-        <v>0.9590550853949082</v>
+        <v>1.167441506948563</v>
       </c>
       <c r="H11">
-        <v>0.9282104079331361</v>
+        <v>0.667100744524987</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.7982003626091512</v>
+        <v>2.695720408221803</v>
       </c>
       <c r="L11">
-        <v>0.2198106222319467</v>
+        <v>0.5451497360768656</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.970184000869352</v>
+        <v>0.8298973243848806</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.198111692939079</v>
+        <v>1.704537259012227</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.03592053746516655</v>
+        <v>0.03799076464783369</v>
       </c>
       <c r="E12">
-        <v>0.2463510242929665</v>
+        <v>0.1027378780634507</v>
       </c>
       <c r="F12">
-        <v>1.109052018296353</v>
+        <v>1.295360199943772</v>
       </c>
       <c r="G12">
-        <v>0.9637332908164922</v>
+        <v>1.192534233394184</v>
       </c>
       <c r="H12">
-        <v>0.9292331056931573</v>
+        <v>0.6769567553669731</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.8180105537371105</v>
+        <v>2.766293771097281</v>
       </c>
       <c r="L12">
-        <v>0.2235684925635724</v>
+        <v>0.5597645363477568</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.965236731115439</v>
+        <v>0.8179426086735759</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.196084033266914</v>
+        <v>1.695841636303982</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.03588889479348012</v>
+        <v>0.03791902342398856</v>
       </c>
       <c r="E13">
-        <v>0.24641884852117</v>
+        <v>0.102811145031561</v>
       </c>
       <c r="F13">
-        <v>1.107968362047259</v>
+        <v>1.289537872024624</v>
       </c>
       <c r="G13">
-        <v>0.9627216956750431</v>
+        <v>1.187108741172608</v>
       </c>
       <c r="H13">
-        <v>0.9290098269868565</v>
+        <v>0.6748230018579022</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.8137441357704347</v>
+        <v>2.751078572856755</v>
       </c>
       <c r="L13">
-        <v>0.2227586082276076</v>
+        <v>0.5566122837369107</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.966297737998822</v>
+        <v>0.8205041584746198</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.189484890331954</v>
+        <v>1.667538538144726</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.03578559133602255</v>
+        <v>0.03768499910486511</v>
       </c>
       <c r="E14">
-        <v>0.2466415907490465</v>
+        <v>0.1030529451765361</v>
       </c>
       <c r="F14">
-        <v>1.10445087595933</v>
+        <v>1.270629784285319</v>
       </c>
       <c r="G14">
-        <v>0.9594381351687389</v>
+        <v>1.169496365095654</v>
       </c>
       <c r="H14">
-        <v>0.9282931839900073</v>
+        <v>0.6679066430332909</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.7998301861725849</v>
+        <v>2.701519412972516</v>
       </c>
       <c r="L14">
-        <v>0.2201195322245866</v>
+        <v>0.5463500095783758</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.969774969186155</v>
+        <v>0.8289079194842444</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.185453102111609</v>
+        <v>1.650243861155076</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.03572223075307335</v>
+        <v>0.03754160434118603</v>
       </c>
       <c r="E15">
-        <v>0.2467792203458945</v>
+        <v>0.1032032425414524</v>
       </c>
       <c r="F15">
-        <v>1.10230902947599</v>
+        <v>1.25910845983482</v>
       </c>
       <c r="G15">
-        <v>0.9574387419243067</v>
+        <v>1.15876985590009</v>
       </c>
       <c r="H15">
-        <v>0.9278630687232123</v>
+        <v>0.6637022377409494</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.7913073151792673</v>
+        <v>2.671208748502693</v>
       </c>
       <c r="L15">
-        <v>0.218504661358395</v>
+        <v>0.5400775780963869</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.971917977778958</v>
+        <v>0.8340935636222184</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.162507892850925</v>
+        <v>1.551749615497016</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.03535785248633161</v>
+        <v>0.03671906851354478</v>
       </c>
       <c r="E16">
-        <v>0.2475862321355482</v>
+        <v>0.1040976500710604</v>
       </c>
       <c r="F16">
-        <v>1.090229703250813</v>
+        <v>1.193974827151891</v>
       </c>
       <c r="G16">
-        <v>0.9461629082926066</v>
+        <v>1.098207395418939</v>
       </c>
       <c r="H16">
-        <v>0.9255338497789865</v>
+        <v>0.6400829833119985</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.7424636761648458</v>
+        <v>2.498169485988313</v>
       </c>
       <c r="L16">
-        <v>0.2092756361515029</v>
+        <v>0.5043296766955763</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.984399423674432</v>
+        <v>0.8643815927007523</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.14857423830594</v>
+        <v>1.491847575037042</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.03513317942672955</v>
+        <v>0.0362136948174161</v>
       </c>
       <c r="E17">
-        <v>0.248097668016193</v>
+        <v>0.1046754461143262</v>
       </c>
       <c r="F17">
-        <v>1.082993014105199</v>
+        <v>1.154774332122258</v>
       </c>
       <c r="G17">
-        <v>0.9394075802283766</v>
+        <v>1.061824462892574</v>
       </c>
       <c r="H17">
-        <v>0.9242259054644677</v>
+        <v>0.6259988646178556</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.7124976334238511</v>
+        <v>2.392558877004006</v>
       </c>
       <c r="L17">
-        <v>0.2036363883576939</v>
+        <v>0.482564443029176</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.992235371992411</v>
+        <v>0.8834585781430562</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.140612454433438</v>
+        <v>1.457574430160719</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.03500353782250798</v>
+        <v>0.03592270954847976</v>
       </c>
       <c r="E18">
-        <v>0.2483978526952146</v>
+        <v>0.105018305306297</v>
       </c>
       <c r="F18">
-        <v>1.078894384941222</v>
+        <v>1.132490936925365</v>
       </c>
       <c r="G18">
-        <v>0.9355815349473318</v>
+        <v>1.041166030433544</v>
       </c>
       <c r="H18">
-        <v>0.9235180455563494</v>
+        <v>0.6180402254265971</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.6952612787914063</v>
+        <v>2.331997046134404</v>
       </c>
       <c r="L18">
-        <v>0.2004011046634417</v>
+        <v>0.4701021549699362</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.996808127788757</v>
+        <v>0.8946083704289762</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.137925757245085</v>
+        <v>1.446000235521581</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.03495957229968383</v>
+        <v>0.03582413205312207</v>
       </c>
       <c r="E19">
-        <v>0.2485005248137213</v>
+        <v>0.1051361837429843</v>
       </c>
       <c r="F19">
-        <v>1.077517597457614</v>
+        <v>1.124990122519833</v>
       </c>
       <c r="G19">
-        <v>0.9342963008169534</v>
+        <v>1.034216105406784</v>
       </c>
       <c r="H19">
-        <v>0.9232860066321109</v>
+        <v>0.6153693552455763</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.6894252356821085</v>
+        <v>2.311521643214149</v>
       </c>
       <c r="L19">
-        <v>0.1993071130812041</v>
+        <v>0.4658919632883425</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.998367667972325</v>
+        <v>0.8984134607525434</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.150052070293924</v>
+        <v>1.498205292004968</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.03515713933605014</v>
+        <v>0.03626752406083611</v>
       </c>
       <c r="E20">
-        <v>0.248042601896227</v>
+        <v>0.1046128455635582</v>
       </c>
       <c r="F20">
-        <v>1.083756775359234</v>
+        <v>1.158919681996764</v>
       </c>
       <c r="G20">
-        <v>0.9401205421705612</v>
+        <v>1.065669414418622</v>
       </c>
       <c r="H20">
-        <v>0.9243605391474858</v>
+        <v>0.6274832776617103</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.7156876418382012</v>
+        <v>2.403782032244663</v>
       </c>
       <c r="L20">
-        <v>0.204235840967371</v>
+        <v>0.4848754511409652</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.991394418416292</v>
+        <v>0.8814093456946708</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.191421056617259</v>
+        <v>1.675843072388176</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.03581595163547746</v>
+        <v>0.0377537475950227</v>
       </c>
       <c r="E21">
-        <v>0.2465759172662878</v>
+        <v>0.1029814656572778</v>
       </c>
       <c r="F21">
-        <v>1.10548139664273</v>
+        <v>1.276170868237401</v>
       </c>
       <c r="G21">
-        <v>0.9604001196233298</v>
+        <v>1.174656623378866</v>
       </c>
       <c r="H21">
-        <v>0.9285018351415033</v>
+        <v>0.6699314217263748</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.8039170873547334</v>
+        <v>2.716066501475353</v>
       </c>
       <c r="L21">
-        <v>0.2208943512190018</v>
+        <v>0.5493614484482663</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.968750890927488</v>
+        <v>0.826431560545501</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.218922874744095</v>
+        <v>1.793781141263565</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.03624276130716808</v>
+        <v>0.03872286298742367</v>
       </c>
       <c r="E22">
-        <v>0.2456707958864595</v>
+        <v>0.1020127198582799</v>
       </c>
       <c r="F22">
-        <v>1.120248613127643</v>
+        <v>1.355466213318351</v>
       </c>
       <c r="G22">
-        <v>0.9741855403790396</v>
+        <v>1.248601246648349</v>
       </c>
       <c r="H22">
-        <v>0.9316044405861703</v>
+        <v>0.6990900806790989</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.8615724939363929</v>
+        <v>2.922163392225542</v>
       </c>
       <c r="L22">
-        <v>0.2318550483911821</v>
+        <v>0.5921000800308747</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.954538406886762</v>
+        <v>0.792191450052087</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.204202233072351</v>
+        <v>1.730655168206539</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.03601531214644638</v>
+        <v>0.03820580265806939</v>
       </c>
       <c r="E23">
-        <v>0.2461489943731099</v>
+        <v>0.1025206514595975</v>
       </c>
       <c r="F23">
-        <v>1.112314943977438</v>
+        <v>1.312884803921918</v>
       </c>
       <c r="G23">
-        <v>0.9667792573385725</v>
+        <v>1.208870433636577</v>
       </c>
       <c r="H23">
-        <v>0.9299122682893994</v>
+        <v>0.6833902905416664</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.8308014937032056</v>
+        <v>2.811963359965489</v>
       </c>
       <c r="L23">
-        <v>0.2259984107720499</v>
+        <v>0.5692307856824925</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.962070170680661</v>
+        <v>0.8103055554725671</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.149383790230189</v>
+        <v>1.495330455660849</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.03514630853612033</v>
+        <v>0.036243189233236</v>
       </c>
       <c r="E24">
-        <v>0.2480674781211913</v>
+        <v>0.1046411140575616</v>
       </c>
       <c r="F24">
-        <v>1.083411286281461</v>
+        <v>1.157044783154902</v>
       </c>
       <c r="G24">
-        <v>0.9397980324196311</v>
+        <v>1.063930309878586</v>
       </c>
       <c r="H24">
-        <v>0.9242995339045308</v>
+        <v>0.6268117447176706</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.7142454654296273</v>
+        <v>2.398707564636879</v>
       </c>
       <c r="L24">
-        <v>0.2039648072772025</v>
+        <v>0.4838304870051076</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.991774402445142</v>
+        <v>0.8823352374529421</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.092261141298252</v>
+        <v>1.248298180284536</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.03419309261238723</v>
+        <v>0.0341142340405618</v>
       </c>
       <c r="E25">
-        <v>0.2503671459129047</v>
+        <v>0.1073289955217334</v>
       </c>
       <c r="F25">
-        <v>1.054669238504843</v>
+        <v>0.9988741952930837</v>
       </c>
       <c r="G25">
-        <v>0.9129654809214003</v>
+        <v>0.9176792529568019</v>
       </c>
       <c r="H25">
-        <v>0.9199438874669852</v>
+        <v>0.57114570012088</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.5884954219815199</v>
+        <v>1.959744743202691</v>
       </c>
       <c r="L25">
-        <v>0.1805139010115937</v>
+        <v>0.393828544789983</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2.026327504213608</v>
+        <v>0.966751723362318</v>
       </c>
       <c r="O25">
         <v>0</v>
